--- a/Symphony/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
+++ b/Symphony/Others/Adding New Retailer Format/Retailer's payment format (Changed bkash no) of Rajshahi zone.xlsx
@@ -43,10 +43,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Nahar Telecom</t>
-  </si>
-  <si>
-    <t>RET-08786</t>
+    <t>RET-33092</t>
+  </si>
+  <si>
+    <t>Mondol Mobile Center</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,17 +471,17 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>1836302020</v>
+        <v>1704361551</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
